--- a/biology/Médecine/Liste_de_codes_CIM-9/Liste_de_codes_CIM-9.xlsx
+++ b/biology/Médecine/Liste_de_codes_CIM-9/Liste_de_codes_CIM-9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici une liste de codes de la Classification internationale des maladies. Ces codes sont dans le domaine public.   
 Cette liste n'est pas exhaustive. 
@@ -514,22 +526,126 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Maladies infectieuses intestinales (001-009)
-(001) Choléra
+          <t>Maladies infectieuses intestinales (001-009)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(001) Choléra
 (002) Fièvres typhoïdes et paratyphoïdes
-(003) Autres salmonelloses
-tuberculose (010-018)
-zoonoses bactériennes (020-027)
-Autres maladies bactériennes (030-041)
-(030) Lèpre
+(003) Autres salmonelloses</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1. Maladies infectieuses et parasitaires (001-139)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Autres maladies bactériennes (030-041)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(030) Lèpre
 (032) Diphtérie
 (037) Tétanos
-(038) Septicémie
-Infection à VIH (042-044)
-poliomyélite et autres infections virales du SNC autres que celles dues à des arbovirus (045-049)
-(045) poliomyélite aiguë
-Maladies virales accompagnées d'exanthème (050-057)
-(050) Variole
+(038) Septicémie</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1. Maladies infectieuses et parasitaires (001-139)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>poliomyélite et autres infections virales du SNC autres que celles dues à des arbovirus (045-049)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(045) poliomyélite aiguë</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1. Maladies infectieuses et parasitaires (001-139)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Maladies virales accompagnées d'exanthème (050-057)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(050) Variole
 (051) Cowpox and paravaccinia
 (052) Chickenpox
 (052.9) Chickenpox, NOS (en)
@@ -546,14 +662,116 @@
 (056.9) Rubéole, uncomplicated
 (057) Other viral exanthemata
 (057.0) 5° maladie
-(057.9) Exanthème, viral, unspec.
-Maladies virales dues à des arbovirus (060-066)
-(060) Fièvre jaune
-(061) Dengue
-Autres maladies dues à des virus ou à des chlamydiae (070-079)
-(070) Hépatite virale
-rickettsioses et autres maladies transmises par des arthropodes (080-088)
-(084) Paludisme
+(057.9) Exanthème, viral, unspec.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1. Maladies infectieuses et parasitaires (001-139)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Maladies virales dues à des arbovirus (060-066)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(060) Fièvre jaune
+(061) Dengue</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1. Maladies infectieuses et parasitaires (001-139)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres maladies dues à des virus ou à des chlamydiae (070-079)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(070) Hépatite virale</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1. Maladies infectieuses et parasitaires (001-139)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>rickettsioses et autres maladies transmises par des arthropodes (080-088)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(084) Paludisme
 (084.0) Paludisme avec fièvre tierce maligne (Plasmodium falciparum)
 (084.1) Paludisme avec fièvre tierce bénigne (Plasmodium vivax)
 (084.2) Paludisme avec fièvre quarte (Plasmodium malariae)
@@ -563,50 +781,224 @@
 (084.6) Paludisme sans précision
 (084.7) Paludisme induit
 (084.8) Paludisme avec complication due à Plasmodium falciparum (Blackwater fever)
-(084.9) Autres complications dues au paludisme
-syphilis et autres MST (090-099)
-(090) syphilis congénitale
-Autres maladies dues à des spirochètes (100-104)
-(100) Leptospirose
-(101) angine de Vincent
-mycoses (110-118)
-(110) Dermatophytose
-helminthiases (120-129)
-(120) bilharziose
-Autres maladies infectieuses et parasitaires (130-136)
-(130) Toxoplasmose
-séquelles de maladies infectieuses et parasitaires (137-139)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+(084.9) Autres complications dues au paludisme</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1. Maladies infectieuses et parasitaires (001-139)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>syphilis et autres MST (090-099)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(090) syphilis congénitale</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1. Maladies infectieuses et parasitaires (001-139)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autres maladies dues à des spirochètes (100-104)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(100) Leptospirose
+(101) angine de Vincent</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1. Maladies infectieuses et parasitaires (001-139)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>mycoses (110-118)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(110) Dermatophytose</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1. Maladies infectieuses et parasitaires (001-139)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>helminthiases (120-129)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(120) bilharziose</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1. Maladies infectieuses et parasitaires (001-139)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Autres maladies infectieuses et parasitaires (130-136)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(130) Toxoplasmose</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2. Néoplasmes (140-239)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Néoplasme malin de la lèvre, de la cavité orale et du pharynx (140-149)
-(140) Lèvre
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Néoplasme malin de la lèvre, de la cavité orale et du pharynx (140-149)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(140) Lèvre
 (140.0) Lèvre supérieure, SAI
 (140.1) Lèvre inférieure, SAI
 (140.3) Lèvre supérieure, face postérieure
@@ -674,9 +1066,43 @@
 (149.0) Pharynx, SAI
 (149.1) Anneau de Waldeyer
 (149.8) Lèvre, cavité orale et pharynx, autre
-(149.9) Lèvre, cavité orale et pharynx, mal définis
-Néoplasme malin des organes digestifs et du péritoine (150-159)
-(150) Œsophage
+(149.9) Lèvre, cavité orale et pharynx, mal définis</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2. Néoplasmes (140-239)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Néoplasme malin des organes digestifs et du péritoine (150-159)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(150) Œsophage
 (151) Estomac
 (152) Intestin grèle
 (153) Côlon
@@ -685,9 +1111,43 @@
 (156) Vésicule biliaire et voies biliaires extra-hépatiques
 (157) Pancréas
 (158) Péritoine et tissu sous-péritonéal
-(159) Organes digestifs autres ou SAI
-Néoplasme malin des organes respiratoires et intra-thoraciques (160-165)
-(160) Fosses nasales, oreille moyenne et sinus annexes
+(159) Organes digestifs autres ou SAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2. Néoplasmes (140-239)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Néoplasme malin des organes respiratoires et intra-thoraciques (160-165)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(160) Fosses nasales, oreille moyenne et sinus annexes
 (160.0) Fosses nasales
 (160.1) Trompe d'Eustache et oreille moyenne
 (160.2) Sinus maxillaire
@@ -706,16 +1166,84 @@
 (162) Trachée, bronches et poumon
 (163) Plèvre
 (164) Thymus, cœur et médiastin
-(165) Appareil respiratoire, organes autres ou SAI
-Néoplasme malin des os, des tissus conjonctifs, de la peau et du sein (170-176)
-(170) Os et cartilages articulaires
+(165) Appareil respiratoire, organes autres ou SAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2. Néoplasmes (140-239)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Néoplasme malin des os, des tissus conjonctifs, de la peau et du sein (170-176)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(170) Os et cartilages articulaires
 (171) Tissu conjonctif et tissus mous
 (172) Mélanome malin de la peau
 (173) Peau
 (174) Sein féminin
-(175) Sein masculin
-Néoplasme malin des organes génito-urinaires (179-189)
-(179) Utérus, partie non précisée
+(175) Sein masculin</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2. Néoplasmes (140-239)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Néoplasme malin des organes génito-urinaires (179-189)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(179) Utérus, partie non précisée
 (180) Col de l'utérus
 (181) Placenta
 (182) Corps de l'utérus
@@ -725,9 +1253,43 @@
 (186) Testicules
 (187) Verge et autres organes génitaux masculins
 (188) Vessie
-(189) Rein et organes urinaires autres et SAI
-Néoplasme malin d'autres localisations ou de localisation non précisée (190-199)
-(190) Œil
+(189) Rein et organes urinaires autres et SAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2. Néoplasmes (140-239)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Néoplasme malin d'autres localisations ou de localisation non précisée (190-199)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(190) Œil
 (191) Encéphale
 (192) Système nerveux, partie autre ou SAI
 (193) Thyroïde
@@ -736,9 +1298,43 @@
 (196) Ganglions lymphatiques, secondaires ou SAI
 (197) Tumeur maligne secondaire, appareil respiratoire et digestif
 (198) Autres tumeurs malignes secondaires
-(199) Tumeur maligne de siège non précisé
-Tumeur maligne des tissus lymphoïdes et hématopoïétiques (200-209)
-(200) Lymphosarcome et réticulosarcome
+(199) Tumeur maligne de siège non précisé</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2. Néoplasmes (140-239)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Tumeur maligne des tissus lymphoïdes et hématopoïétiques (200-209)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(200) Lymphosarcome et réticulosarcome
 (201) Maladie de Hodgkin
 (202) Autres tumeurs des tissus lymphatiques
 (203) Myélomes multiples et tumeurs immunoprolifératives
@@ -746,44 +1342,79 @@
 (205) Leucémie myéloïde
 (206) Leucémie monocytaire
 (207) Autres leucémies précisées
-(208) Leucémies à cellules non précisées
-Néoplasme bénin (210-229)
-Carcinome in situ (230-234)
-Néoplasme au comportement incertain (235-238)
-Néoplasme de nature non spécifiée (239-239)
-(239) Néoplasme de nature non spécifiée</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+(208) Leucémies à cellules non précisées</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2. Néoplasmes (140-239)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Néoplasme de nature non spécifiée (239-239)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(239) Néoplasme de nature non spécifiée</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>3. Maladies endocrines, nutritionnelles et métaboliques, et troubles immunitaires (240-279)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>troubles de la glande thyroïde (240-246)
-Maladies des autres glandes endocrines (250-259)
-(250) Diabète sucré
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Maladies des autres glandes endocrines (250-259)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(250) Diabète sucré
 (251) Autres troubles de la sécrétion endocrine du pancréas
 (251.2) Hypoglycémie non diabétique, non spécifiée
 (252) Troubles de la glande parathyroïde
@@ -796,11 +1427,79 @@
 (256) dysfonctionnement de l'ovaire
 (257) dysfonctionnement testiculaire
 (258) dysfonctionnement polyglandulaire et troubles apparentés
-(259) Autres troubles endocriniens
-déficits de nutrition (260-269)
-(260) Kwashiorkor
-Autres troubles métaboliques et immunitaires (270-279)
-(270) Troubles du transport et du métabolisme des acides aminés
+(259) Autres troubles endocriniens</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3. Maladies endocrines, nutritionnelles et métaboliques, et troubles immunitaires (240-279)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>déficits de nutrition (260-269)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(260) Kwashiorkor</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3. Maladies endocrines, nutritionnelles et métaboliques, et troubles immunitaires (240-279)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Autres troubles métaboliques et immunitaires (270-279)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(270) Troubles du transport et du métabolisme des acides aminés
 (270.1) Phénylcétonurie (PKU)
 (271) Troubles du transport et du métabolisme des hydrates de carbone
 (272) Troubles du métabolisme des lipides
@@ -834,34 +1533,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>4. Maladies du sang et des organes hématopoïétiques(280-289)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Maladies du sang et des organes hématopoïétiques(280-289)
-(280) Anémies ferriprives
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Maladies du sang et des organes hématopoïétiques(280-289)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(280) Anémies ferriprives
 (281) Autres Anémies de déficience
 (281.0) Anémie pernicieuse
 (282) Anémies hémolytiques héréditaires
@@ -872,37 +1576,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>5. Troubles mentaux (290-319)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>psychoses (290-299)
-États psychotiques organiques (290-294)
-Autres psychoses (295-299)
-Névroses, troubles de la personnalité et autres troubles mentaux (300-316)
-(300) Troubles névrotiques
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Névroses, troubles de la personnalité et autres troubles mentaux (300-316)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(300) Troubles névrotiques
 (300.3) Trouble obsessionnel compulsif
 (301) Troubles de la personnalité
 (302) déviations sexuelles et troubles sexuels
@@ -922,41 +1628,79 @@
 (313) Trouble émotionnel spécifique à l'enfance et à l'adolescence
 (314) syndrome hypercinétique de l'enfance
 (315) Retards de développement spécifiques
-(316) facteurs psychiques associés à des maladies classées ailleurs
-Retard mental (317-319)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+(316) facteurs psychiques associés à des maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>6. Maladies du système nerveux et des organes sensoriels (320-389)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Maladies inflammatoires du SNC (320-326)
-(320) méningite bactérienne
-Maladies héréditaires et dégénératives du SNC (330-337)
-(330) Dégénérations cérébrales se manifestant habituellement au cours de l'enfance
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Maladies inflammatoires du SNC (320-326)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(320) méningite bactérienne</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>6. Maladies du système nerveux et des organes sensoriels (320-389)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Maladies héréditaires et dégénératives du SNC (330-337)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(330) Dégénérations cérébrales se manifestant habituellement au cours de l'enfance
 (330.0) Maladie de Krabbe
 (331) Autres dégénérations cérébrales
 (331.4) Hydrocéphalie obstructive
@@ -976,231 +1720,331 @@
 (336) Autres maladies de la moelle épinière
 (337) Troubles du système nerveux autonome
 (337.21) Reflex sympathetic dyst., membre supérieur
-(337.22) Reflex sympathetic dyst., membre inférieur
-Autres troubles du SNC (340-349)
-(340) sclérose en plaques
-Troubles du système nerveux périphérique (350-359)
-Troubles de l'œil et des adnexa (360-379)
-Troubles de l'oreille et du processus mastoïdique (380-389)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+(337.22) Reflex sympathetic dyst., membre inférieur</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>6. Maladies du système nerveux et des organes sensoriels (320-389)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Autres troubles du SNC (340-349)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(340) sclérose en plaques</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>7. Maladies de la circulation (390-459)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Fièvre rhumatoïde aiguë (390-392)
-Maladie rhumatismale cardiaque chronique (393-398)
-Hypertension (401-405)
-Maladie ischémique cardiaque (410-414)
-Maladies de la circulation pulmonaire (415-417)
-Autres formes de maladie cardiaque (420-429)
-Maladie cérébro-vasculaire (430-438)
-Maladies des artères, des artérioles et des capillaires (440-448)
-(440) Athérosclérose
-Maladies veineuses et lymphatiques, et autres maladies de l'appareil circulatoire (451-459)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8. Maladies du système respiratoire (460-519)</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>infections respiratoires aiguës(460-466)
-Autres maladies des voies respiratoires supérieures (470-478)
-pneumonie et influenza (480-487)
-Bronchopneumopathie chronique obstructive et troubles connexes (490-496)
-Pneumoconioses et autres maladies pulmonaires dues à des agents externes (500-508)
-Autres maladies du système respiratoire (510-519)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Maladies des artères, des artérioles et des capillaires (440-448)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(440) Athérosclérose</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>9. Maladies du système digestif (520-579)</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Maladies de la cavité orale, des glandes salivaires, et des joues (520-529)
-Maladies de l'œsophage, de l'estomac, et du duodenum (530-537)
-appendicite (540-543)
-hernie de la cavité abdominale (550-553)
-entérite et colite non infectieuse (555-558)
-Autres maladies des intestins et du péritoine (560-569)
-Autres maladies du système digestif (570-579)
-(579.9) Malabsorption, NOS (en)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Autres maladies du système digestif (570-579)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(579.9) Malabsorption, NOS (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>10. Maladies du système génito-urinaire (580-629)</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>néphrite, syndrome néphrotique et néphrose (580-589)
-autres maladies des voies urinaires (590-599)
-Maladies des organes génitaux masculins (600-608)
-(600) Hyperplasie bénigne de la prostate
-Troubles des seins (610-611)
-Maladie inflammatoire des organes pelviques féminins (614-616)
-Autres troubles des voies génitales féminines (617-629)
-(617) Endométriose</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Maladies des organes génitaux masculins (600-608)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(600) Hyperplasie bénigne de la prostate</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>10. Maladies du système génito-urinaire (580-629)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Autres troubles des voies génitales féminines (617-629)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(617) Endométriose</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>11. Complications de la grossesse, de l'accouchement et de l'état puerpéral (630-676)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Grossesse ectopique et molaire (630-633)
-(630) mole hydatidiforme
-Autres grossesses débouchant sur un avortement (634-639)
-(634) avortement spontané
-complications liées principalement à la grossesse (640-648)
-Accouchement normal, et autres indications pour le suivi de la grossesse et de l'accouchement (650-659)
-complications se produisant principalement au cours de l'accouchement (660-669)
-complications de la période puerpérale (670-676)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Grossesse ectopique et molaire (630-633)</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(630) mole hydatidiforme</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>11. Complications de la grossesse, de l'accouchement et de l'état puerpéral (630-676)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Autres grossesses débouchant sur un avortement (634-639)</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(634) avortement spontané</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>12. Maladies de la peau et du tissu sous-cutané (680-709)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>infections de la peau et du tissu sous-cutané (680-686)
-(680) Anthrax et furoncle
-Autres états inflammatoires de la peau et du tissu sous-cutané (690-698)
-Autres maladies de la peau et du tissu sous-cutané (700-709)
-(700) Cals et cors
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>infections de la peau et du tissu sous-cutané (680-686)</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(680) Anthrax et furoncle</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>12. Maladies de la peau et du tissu sous-cutané (680-709)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Autres maladies de la peau et du tissu sous-cutané (700-709)</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(700) Cals et cors
 (701) Autres états hypertrophiques et atrophiques de la peau
 (702) Autres dermatoses
 (702.0) kératose actinique
@@ -1224,38 +2068,75 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>13. Maladies de l'appareil locomoteur et du tissu conjonctif (710-739)</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Arthropathies et troubles apparentés (710-719)
-dorsopathies (720-724)
-rhumatisme, à l'exception du dos (725-729)
-(725) Polymyalgia rheumatica
-Ostéopathies, chondropathies, et malformations musculo-squelettiques acquises (730-739)
-(730) Ostéomyélite, périostite, et autres infections osseuses
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>rhumatisme, à l'exception du dos (725-729)</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(725) Polymyalgia rheumatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>13. Maladies de l'appareil locomoteur et du tissu conjonctif (710-739)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Ostéopathies, chondropathies, et malformations musculo-squelettiques acquises (730-739)</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(730) Ostéomyélite, périostite, et autres infections osseuses
 (731) Osteitis deformans et ostéopathies associées à d'autres troubles
 (732) Ostéochondropathies
 (733) Autres troubles de l'os ou du cartilage
@@ -1275,66 +2156,39 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>14. anomalies congénitales (740-759)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>anomalies congénitales (740-759)
-autres états qui trouvent leur origine dans la période périnatale (764-779)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>16. Symptômes, signes, et états considérés comme maladifs (780-799)</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>symptômes (780-789)
-Anomalies non spécifiques (790-796)
-(790) Nonspecific findings on examination of blood
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Anomalies non spécifiques (790-796)</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(790) Nonspecific findings on examination of blood
 (790.1) Elevated sedimentation rate
 (790.21) Abnormal fasting glucose
 (790.22) Abnormal glucose tolerance test
@@ -1364,68 +2218,83 @@
 (795.09) Abnormal Pap, other and HPV
 (795.5) Positive PPD
 (796) Other nonspecific abnormal findings
-(796.2) Elevated BP w/o hypertension
-causes maladives et inconnues de morbidité et de mortalité (797-799)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+(796.2) Elevated BP w/o hypertension</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>17. Traumatisme et intoxication (800-999)</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>fracture du crâne (800-804)
-fracture du cou et du tronc  (805-809)
-fracture du membre supérieur (810-819)
-fracture du membre inférieur (820-829)
-dislocation (830-839)
-sprains and strains of joints and adjacent muscles (840-848)
-traumatisme intracranien, à l'exclusion de ceux qui impliquent une fracture du crâne (850-854)
-traumatisme interne du thorax, de l'abdomen, et du bassin (860-869)
-plaie ouverte de la tête, du cou et du tronc (870-879)
-plaie ouverte (870-897)
-plaie ouverte du membre supérieur (880-887)
-plaie ouverte du membre inférieur (890-897)
-traumatisme des vaisseaux sanguins (900-904)
-séquelles de traumatismes, d'effets toxiques et d'autres causes externes (905-909)
-traumatisme superficiel (910-919)
-contusion avec une surface cutanée intacte (920-924)
-Écrasements  (925-929)
-(925) Écrasement de la face, du cuir chevelu et du cou
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Écrasements  (925-929)</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(925) Écrasement de la face, du cuir chevelu et du cou
 (926) Écrasement du tronc
 (927) Écrasement du membre supérieur
 (928) Écrasement du membre inférieur
-(929) Écrasement de sièges multiples et non précisés
-Effets d'un corps étranger pénétrant par un orifice (930-939)
-brûlures (940-949)
-traumatisme des nerfs et de la moelle épinière (950-957)
-(953) Cervical root injury
-certaines complications traumatiques et traumatismes non spécifiés (958-959)
-intoxication par des médicaments ou de la drogue, des substances médicinales et biologiques (960-979)
-effets toxiques dues à des substances qui sont principalement non médicinales (980-989)
-effets autres et non spécifiés d'origine externe (990-995)
-complications des soins chirurgicaux et médicaux, non classées ailleurs (996-999)</t>
+(929) Écrasement de sièges multiples et non précisés</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_codes_CIM-9</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>17. Traumatisme et intoxication (800-999)</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>traumatisme des nerfs et de la moelle épinière (950-957)</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(953) Cervical root injury</t>
         </is>
       </c>
     </row>
